--- a/biology/Botanique/Square_de_la_Place-André-Masson/Square_de_la_Place-André-Masson.xlsx
+++ b/biology/Botanique/Square_de_la_Place-André-Masson/Square_de_la_Place-André-Masson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_de_la_Place-Andr%C3%A9-Masson</t>
+          <t>Square_de_la_Place-André-Masson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de la Place-André-Masson est un espace vert du 13e arrondissement de Paris situé sur la place André-Masson.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_de_la_Place-Andr%C3%A9-Masson</t>
+          <t>Square_de_la_Place-André-Masson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par le 1, place André-Masson.
 Il est desservi par la ligne 5, 6 et 7 à la station Place d'Italie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_de_la_Place-Andr%C3%A9-Masson</t>
+          <t>Square_de_la_Place-André-Masson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à la proximité de la place André-Masson, qui doit son nom au peintre André Masson (1896-1987) 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_de_la_Place-Andr%C3%A9-Masson</t>
+          <t>Square_de_la_Place-André-Masson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_de_la_Place-Andr%C3%A9-Masson</t>
+          <t>Square_de_la_Place-André-Masson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des jardinières plantées d'une dizaine d'arbres, de bambous nains et de buis, apportent une touche de verdure à cet espace très minéral.
 </t>
